--- a/regions_data/Ciepłownictwo/pie_chart_data/3_Nakłady ze względu na rodzaj.xlsx
+++ b/regions_data/Ciepłownictwo/pie_chart_data/3_Nakłady ze względu na rodzaj.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t xml:space="preserve">Województwo</t>
+    <t xml:space="preserve">Nazwa wycinka</t>
   </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Zachodniopomorskie</t>
   </si>
   <si>
-    <t xml:space="preserve">nakłady związane z wytwarzaniem ciepła</t>
+    <t xml:space="preserve">Nakłady wiązane z wytwarzaniem</t>
   </si>
   <si>
     <t xml:space="preserve">168 272,4</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">34 201,0</t>
   </si>
   <si>
-    <t xml:space="preserve">nakłady związane z przesyłaniem i dystrybucją ciepła</t>
+    <t xml:space="preserve">Nakłady związane z przesyłem i dystrybucją</t>
   </si>
   <si>
     <t xml:space="preserve">111 366,6</t>
@@ -272,174 +272,175 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="B1:R3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>50</v>
       </c>
     </row>
